--- a/storage/app/document_templates/invoice_payment_template.xlsx
+++ b/storage/app/document_templates/invoice_payment_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\Laravel\iron-admin\storage\app\public\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\Laravel\iron-crm\storage\app\document_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE0477C-071E-4A4F-9DC7-DAB375D8264E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561472F5-F3D7-4EDA-9B4F-DE87F1305648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showSheetTabs="0" xWindow="2670" yWindow="3480" windowWidth="21600" windowHeight="11295" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t xml:space="preserve">Внимание! Оплата данного счета означает согласие с условиями поставки товара. Уведомление об оплате 
  обязательно, в противном случае не гарантируется наличие товара на складе. Товар отпускается по факту
@@ -118,9 +118,6 @@
   </si>
   <si>
     <t>Счет № 250 от 22.01.2021</t>
-  </si>
-  <si>
-    <t>БИН 150540023333   ,TOO "Вита Групп"  , 071300, Республика Казахстан, Г. Риддер, пр.Независимости 1-44</t>
   </si>
   <si>
     <t>Wild Food Whey 900g Клубника</t>
@@ -513,14 +510,47 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -528,41 +558,8 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -622,9 +619,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -644,14 +638,17 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1004,7 +1001,7 @@
   <dimension ref="B1:AH50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="AM27" sqref="AM27"/>
+      <selection activeCell="F21" sqref="F21:AG21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1298,17 +1295,17 @@
       <c r="T10" s="36"/>
       <c r="U10" s="37"/>
       <c r="V10" s="38"/>
-      <c r="W10" s="27"/>
-      <c r="X10" s="28"/>
-      <c r="Y10" s="28"/>
-      <c r="Z10" s="28"/>
-      <c r="AA10" s="28"/>
-      <c r="AB10" s="28"/>
-      <c r="AC10" s="28"/>
-      <c r="AD10" s="28"/>
-      <c r="AE10" s="28"/>
-      <c r="AF10" s="28"/>
-      <c r="AG10" s="29"/>
+      <c r="W10" s="23"/>
+      <c r="X10" s="24"/>
+      <c r="Y10" s="24"/>
+      <c r="Z10" s="24"/>
+      <c r="AA10" s="24"/>
+      <c r="AB10" s="24"/>
+      <c r="AC10" s="24"/>
+      <c r="AD10" s="24"/>
+      <c r="AE10" s="24"/>
+      <c r="AF10" s="24"/>
+      <c r="AG10" s="25"/>
     </row>
     <row r="11" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="53" t="s">
@@ -1334,17 +1331,17 @@
       <c r="T11" s="39"/>
       <c r="U11" s="40"/>
       <c r="V11" s="41"/>
-      <c r="W11" s="30"/>
-      <c r="X11" s="31"/>
-      <c r="Y11" s="31"/>
-      <c r="Z11" s="31"/>
-      <c r="AA11" s="31"/>
-      <c r="AB11" s="31"/>
-      <c r="AC11" s="31"/>
-      <c r="AD11" s="31"/>
-      <c r="AE11" s="31"/>
-      <c r="AF11" s="31"/>
-      <c r="AG11" s="32"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="27"/>
+      <c r="Y11" s="27"/>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="27"/>
+      <c r="AB11" s="27"/>
+      <c r="AC11" s="27"/>
+      <c r="AD11" s="27"/>
+      <c r="AE11" s="27"/>
+      <c r="AF11" s="27"/>
+      <c r="AG11" s="28"/>
     </row>
     <row r="12" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="53"/>
@@ -1368,17 +1365,17 @@
       <c r="T12" s="39"/>
       <c r="U12" s="40"/>
       <c r="V12" s="41"/>
-      <c r="W12" s="30"/>
-      <c r="X12" s="31"/>
-      <c r="Y12" s="31"/>
-      <c r="Z12" s="31"/>
-      <c r="AA12" s="31"/>
-      <c r="AB12" s="31"/>
-      <c r="AC12" s="31"/>
-      <c r="AD12" s="31"/>
-      <c r="AE12" s="31"/>
-      <c r="AF12" s="31"/>
-      <c r="AG12" s="32"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="27"/>
+      <c r="Y12" s="27"/>
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="27"/>
+      <c r="AB12" s="27"/>
+      <c r="AC12" s="27"/>
+      <c r="AD12" s="27"/>
+      <c r="AE12" s="27"/>
+      <c r="AF12" s="27"/>
+      <c r="AG12" s="28"/>
     </row>
     <row r="13" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="54" t="s">
@@ -1404,199 +1401,197 @@
       <c r="T13" s="42"/>
       <c r="U13" s="43"/>
       <c r="V13" s="44"/>
-      <c r="W13" s="33"/>
-      <c r="X13" s="34"/>
-      <c r="Y13" s="34"/>
-      <c r="Z13" s="34"/>
-      <c r="AA13" s="34"/>
-      <c r="AB13" s="34"/>
-      <c r="AC13" s="34"/>
-      <c r="AD13" s="34"/>
-      <c r="AE13" s="34"/>
-      <c r="AF13" s="34"/>
-      <c r="AG13" s="35"/>
+      <c r="W13" s="29"/>
+      <c r="X13" s="30"/>
+      <c r="Y13" s="30"/>
+      <c r="Z13" s="30"/>
+      <c r="AA13" s="30"/>
+      <c r="AB13" s="30"/>
+      <c r="AC13" s="30"/>
+      <c r="AD13" s="30"/>
+      <c r="AE13" s="30"/>
+      <c r="AF13" s="30"/>
+      <c r="AG13" s="31"/>
     </row>
     <row r="15" spans="2:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="62"/>
-      <c r="N15" s="62"/>
-      <c r="O15" s="62"/>
-      <c r="P15" s="62"/>
-      <c r="Q15" s="62"/>
-      <c r="R15" s="62"/>
-      <c r="S15" s="62"/>
-      <c r="T15" s="62"/>
-      <c r="U15" s="62"/>
-      <c r="V15" s="62"/>
-      <c r="W15" s="62"/>
-      <c r="X15" s="62"/>
-      <c r="Y15" s="62"/>
-      <c r="Z15" s="62"/>
-      <c r="AA15" s="62"/>
-      <c r="AB15" s="62"/>
-      <c r="AC15" s="62"/>
-      <c r="AD15" s="62"/>
-      <c r="AE15" s="62"/>
-      <c r="AF15" s="62"/>
-      <c r="AG15" s="62"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="61"/>
+      <c r="Q15" s="61"/>
+      <c r="R15" s="61"/>
+      <c r="S15" s="61"/>
+      <c r="T15" s="61"/>
+      <c r="U15" s="61"/>
+      <c r="V15" s="61"/>
+      <c r="W15" s="61"/>
+      <c r="X15" s="61"/>
+      <c r="Y15" s="61"/>
+      <c r="Z15" s="61"/>
+      <c r="AA15" s="61"/>
+      <c r="AB15" s="61"/>
+      <c r="AC15" s="61"/>
+      <c r="AD15" s="61"/>
+      <c r="AE15" s="61"/>
+      <c r="AF15" s="61"/>
+      <c r="AG15" s="61"/>
     </row>
     <row r="16" spans="2:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="62"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="62"/>
-      <c r="P16" s="62"/>
-      <c r="Q16" s="62"/>
-      <c r="R16" s="62"/>
-      <c r="S16" s="62"/>
-      <c r="T16" s="62"/>
-      <c r="U16" s="62"/>
-      <c r="V16" s="62"/>
-      <c r="W16" s="62"/>
-      <c r="X16" s="62"/>
-      <c r="Y16" s="62"/>
-      <c r="Z16" s="62"/>
-      <c r="AA16" s="62"/>
-      <c r="AB16" s="62"/>
-      <c r="AC16" s="62"/>
-      <c r="AD16" s="62"/>
-      <c r="AE16" s="62"/>
-      <c r="AF16" s="62"/>
-      <c r="AG16" s="62"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="61"/>
+      <c r="P16" s="61"/>
+      <c r="Q16" s="61"/>
+      <c r="R16" s="61"/>
+      <c r="S16" s="61"/>
+      <c r="T16" s="61"/>
+      <c r="U16" s="61"/>
+      <c r="V16" s="61"/>
+      <c r="W16" s="61"/>
+      <c r="X16" s="61"/>
+      <c r="Y16" s="61"/>
+      <c r="Z16" s="61"/>
+      <c r="AA16" s="61"/>
+      <c r="AB16" s="61"/>
+      <c r="AC16" s="61"/>
+      <c r="AD16" s="61"/>
+      <c r="AE16" s="61"/>
+      <c r="AF16" s="61"/>
+      <c r="AG16" s="61"/>
     </row>
     <row r="17" spans="2:33" ht="6.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="63"/>
-      <c r="O17" s="63"/>
-      <c r="P17" s="63"/>
-      <c r="Q17" s="63"/>
-      <c r="R17" s="63"/>
-      <c r="S17" s="63"/>
-      <c r="T17" s="63"/>
-      <c r="U17" s="63"/>
-      <c r="V17" s="63"/>
-      <c r="W17" s="63"/>
-      <c r="X17" s="63"/>
-      <c r="Y17" s="63"/>
-      <c r="Z17" s="63"/>
-      <c r="AA17" s="63"/>
-      <c r="AB17" s="63"/>
-      <c r="AC17" s="63"/>
-      <c r="AD17" s="63"/>
-      <c r="AE17" s="63"/>
-      <c r="AF17" s="63"/>
-      <c r="AG17" s="63"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="62"/>
+      <c r="R17" s="62"/>
+      <c r="S17" s="62"/>
+      <c r="T17" s="62"/>
+      <c r="U17" s="62"/>
+      <c r="V17" s="62"/>
+      <c r="W17" s="62"/>
+      <c r="X17" s="62"/>
+      <c r="Y17" s="62"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="62"/>
+      <c r="AB17" s="62"/>
+      <c r="AC17" s="62"/>
+      <c r="AD17" s="62"/>
+      <c r="AE17" s="62"/>
+      <c r="AF17" s="62"/>
+      <c r="AG17" s="62"/>
     </row>
     <row r="18" spans="2:33" ht="6.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="2:33" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="64" t="s">
+      <c r="B19" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="65" t="s">
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="65"/>
-      <c r="N19" s="65"/>
-      <c r="O19" s="65"/>
-      <c r="P19" s="65"/>
-      <c r="Q19" s="65"/>
-      <c r="R19" s="65"/>
-      <c r="S19" s="65"/>
-      <c r="T19" s="65"/>
-      <c r="U19" s="65"/>
-      <c r="V19" s="65"/>
-      <c r="W19" s="65"/>
-      <c r="X19" s="65"/>
-      <c r="Y19" s="65"/>
-      <c r="Z19" s="65"/>
-      <c r="AA19" s="65"/>
-      <c r="AB19" s="65"/>
-      <c r="AC19" s="65"/>
-      <c r="AD19" s="65"/>
-      <c r="AE19" s="65"/>
-      <c r="AF19" s="65"/>
-      <c r="AG19" s="65"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="19"/>
+      <c r="Y19" s="19"/>
+      <c r="Z19" s="19"/>
+      <c r="AA19" s="19"/>
+      <c r="AB19" s="19"/>
+      <c r="AC19" s="19"/>
+      <c r="AD19" s="19"/>
+      <c r="AE19" s="19"/>
+      <c r="AF19" s="19"/>
+      <c r="AG19" s="19"/>
     </row>
     <row r="20" spans="2:33" ht="6.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="2:33" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="64" t="s">
+      <c r="B21" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="65" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="65"/>
-      <c r="M21" s="65"/>
-      <c r="N21" s="65"/>
-      <c r="O21" s="65"/>
-      <c r="P21" s="65"/>
-      <c r="Q21" s="65"/>
-      <c r="R21" s="65"/>
-      <c r="S21" s="65"/>
-      <c r="T21" s="65"/>
-      <c r="U21" s="65"/>
-      <c r="V21" s="65"/>
-      <c r="W21" s="65"/>
-      <c r="X21" s="65"/>
-      <c r="Y21" s="65"/>
-      <c r="Z21" s="65"/>
-      <c r="AA21" s="65"/>
-      <c r="AB21" s="65"/>
-      <c r="AC21" s="65"/>
-      <c r="AD21" s="65"/>
-      <c r="AE21" s="65"/>
-      <c r="AF21" s="65"/>
-      <c r="AG21" s="65"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="19"/>
+      <c r="X21" s="19"/>
+      <c r="Y21" s="19"/>
+      <c r="Z21" s="19"/>
+      <c r="AA21" s="19"/>
+      <c r="AB21" s="19"/>
+      <c r="AC21" s="19"/>
+      <c r="AD21" s="19"/>
+      <c r="AE21" s="19"/>
+      <c r="AF21" s="19"/>
+      <c r="AG21" s="19"/>
     </row>
     <row r="22" spans="2:33" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="2:33" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1604,140 +1599,140 @@
         <v>7</v>
       </c>
       <c r="C23" s="55"/>
-      <c r="D23" s="56" t="s">
+      <c r="D23" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="57"/>
-      <c r="N23" s="57"/>
-      <c r="O23" s="57"/>
-      <c r="P23" s="57"/>
-      <c r="Q23" s="57"/>
-      <c r="R23" s="57"/>
-      <c r="S23" s="57"/>
-      <c r="T23" s="58"/>
-      <c r="U23" s="56" t="s">
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="56"/>
+      <c r="S23" s="56"/>
+      <c r="T23" s="57"/>
+      <c r="U23" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="V23" s="56"/>
-      <c r="W23" s="56"/>
-      <c r="X23" s="56" t="s">
+      <c r="V23" s="21"/>
+      <c r="W23" s="21"/>
+      <c r="X23" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="Y23" s="56"/>
-      <c r="Z23" s="56" t="s">
+      <c r="Y23" s="21"/>
+      <c r="Z23" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="AA23" s="56"/>
-      <c r="AB23" s="56"/>
-      <c r="AC23" s="56"/>
-      <c r="AD23" s="66" t="s">
+      <c r="AA23" s="21"/>
+      <c r="AB23" s="21"/>
+      <c r="AC23" s="21"/>
+      <c r="AD23" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="AE23" s="66"/>
-      <c r="AF23" s="66"/>
-      <c r="AG23" s="66"/>
+      <c r="AE23" s="22"/>
+      <c r="AF23" s="22"/>
+      <c r="AG23" s="22"/>
     </row>
     <row r="24" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="55"/>
       <c r="C24" s="55"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="60"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="60"/>
-      <c r="K24" s="60"/>
-      <c r="L24" s="60"/>
-      <c r="M24" s="60"/>
-      <c r="N24" s="60"/>
-      <c r="O24" s="60"/>
-      <c r="P24" s="60"/>
-      <c r="Q24" s="60"/>
-      <c r="R24" s="60"/>
-      <c r="S24" s="60"/>
-      <c r="T24" s="61"/>
-      <c r="U24" s="56"/>
-      <c r="V24" s="56"/>
-      <c r="W24" s="56"/>
-      <c r="X24" s="56"/>
-      <c r="Y24" s="56"/>
-      <c r="Z24" s="56"/>
-      <c r="AA24" s="56"/>
-      <c r="AB24" s="56"/>
-      <c r="AC24" s="56"/>
-      <c r="AD24" s="66"/>
-      <c r="AE24" s="66"/>
-      <c r="AF24" s="66"/>
-      <c r="AG24" s="66"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="59"/>
+      <c r="Q24" s="59"/>
+      <c r="R24" s="59"/>
+      <c r="S24" s="59"/>
+      <c r="T24" s="60"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="21"/>
+      <c r="W24" s="21"/>
+      <c r="X24" s="21"/>
+      <c r="Y24" s="21"/>
+      <c r="Z24" s="21"/>
+      <c r="AA24" s="21"/>
+      <c r="AB24" s="21"/>
+      <c r="AC24" s="21"/>
+      <c r="AD24" s="22"/>
+      <c r="AE24" s="22"/>
+      <c r="AF24" s="22"/>
+      <c r="AG24" s="22"/>
     </row>
     <row r="25" spans="2:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="24">
+      <c r="B25" s="63">
         <v>1</v>
       </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="20"/>
-      <c r="T25" s="21"/>
-      <c r="U25" s="26">
+      <c r="C25" s="63"/>
+      <c r="D25" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="65"/>
+      <c r="M25" s="65"/>
+      <c r="N25" s="65"/>
+      <c r="O25" s="65"/>
+      <c r="P25" s="65"/>
+      <c r="Q25" s="65"/>
+      <c r="R25" s="65"/>
+      <c r="S25" s="65"/>
+      <c r="T25" s="66"/>
+      <c r="U25" s="32">
         <v>2</v>
       </c>
-      <c r="V25" s="26">
+      <c r="V25" s="32">
         <v>24</v>
       </c>
-      <c r="W25" s="26">
+      <c r="W25" s="32">
         <v>24</v>
       </c>
-      <c r="X25" s="22" t="s">
+      <c r="X25" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="Y25" s="22"/>
-      <c r="Z25" s="23">
+      <c r="Y25" s="33"/>
+      <c r="Z25" s="34">
         <v>7117.5</v>
       </c>
-      <c r="AA25" s="23">
+      <c r="AA25" s="34">
         <v>35</v>
       </c>
-      <c r="AB25" s="23">
+      <c r="AB25" s="34">
         <v>35</v>
       </c>
-      <c r="AC25" s="23">
+      <c r="AC25" s="34">
         <v>35</v>
       </c>
-      <c r="AD25" s="25">
+      <c r="AD25" s="35">
         <v>14235</v>
       </c>
-      <c r="AE25" s="25">
+      <c r="AE25" s="35">
         <v>840</v>
       </c>
-      <c r="AF25" s="25">
+      <c r="AF25" s="35">
         <v>840</v>
       </c>
-      <c r="AG25" s="25">
+      <c r="AG25" s="35">
         <v>840</v>
       </c>
     </row>
@@ -1774,7 +1769,7 @@
       <c r="AE26" s="8"/>
       <c r="AF26" s="8"/>
       <c r="AG26" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="2:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1851,7 +1846,7 @@
     </row>
     <row r="29" spans="2:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
@@ -2261,27 +2256,8 @@
     <row r="50" ht="41.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="F19:AG19"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:AG21"/>
-    <mergeCell ref="U23:W24"/>
-    <mergeCell ref="X23:Y24"/>
-    <mergeCell ref="Z23:AC24"/>
-    <mergeCell ref="AD23:AG24"/>
-    <mergeCell ref="W10:AG13"/>
-    <mergeCell ref="U25:W25"/>
-    <mergeCell ref="X25:Y25"/>
-    <mergeCell ref="Z25:AC25"/>
-    <mergeCell ref="AD25:AG25"/>
-    <mergeCell ref="T10:V13"/>
-    <mergeCell ref="B1:AG3"/>
-    <mergeCell ref="B5:AG5"/>
-    <mergeCell ref="B7:S8"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="W7:AG7"/>
-    <mergeCell ref="T8:V9"/>
-    <mergeCell ref="W8:AG9"/>
-    <mergeCell ref="B9:S9"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:T25"/>
     <mergeCell ref="B10:J10"/>
     <mergeCell ref="K10:S10"/>
     <mergeCell ref="B11:S12"/>
@@ -2291,8 +2267,27 @@
     <mergeCell ref="B15:AG16"/>
     <mergeCell ref="B17:AG17"/>
     <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:T25"/>
+    <mergeCell ref="B1:AG3"/>
+    <mergeCell ref="B5:AG5"/>
+    <mergeCell ref="B7:S8"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="W7:AG7"/>
+    <mergeCell ref="T8:V9"/>
+    <mergeCell ref="W8:AG9"/>
+    <mergeCell ref="B9:S9"/>
+    <mergeCell ref="W10:AG13"/>
+    <mergeCell ref="U25:W25"/>
+    <mergeCell ref="X25:Y25"/>
+    <mergeCell ref="Z25:AC25"/>
+    <mergeCell ref="AD25:AG25"/>
+    <mergeCell ref="T10:V13"/>
+    <mergeCell ref="F19:AG19"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:AG21"/>
+    <mergeCell ref="U23:W24"/>
+    <mergeCell ref="X23:Y24"/>
+    <mergeCell ref="Z23:AC24"/>
+    <mergeCell ref="AD23:AG24"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
